--- a/data/Tabellarische_Darstellung.xlsx
+++ b/data/Tabellarische_Darstellung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-makast\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7C13B7-2AB3-49F7-AE00-78FE30D6B2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0098112-9FAA-4027-AC85-D5BE71E30778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{3BF2A3B6-F95D-44C5-B263-B1FCB04FF02A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3BF2A3B6-F95D-44C5-B263-B1FCB04FF02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="184">
   <si>
     <t>ANSI/PMI 08-002-2024, The Standard for Program Management</t>
   </si>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>ISO (International Organization for Standardization)</t>
-  </si>
-  <si>
-    <t>2025 Entwurf</t>
   </si>
   <si>
     <t>PMI (Project Management Institute)</t>
@@ -1017,7 +1014,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,25 +1202,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1432,6 +1410,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
@@ -1481,16 +1478,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC19F6B0-0587-46B4-B294-E8D476710C92}" name="Tabelle2" displayName="Tabelle2" ref="A1:G92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC19F6B0-0587-46B4-B294-E8D476710C92}" name="Tabelle2" displayName="Tabelle2" ref="A1:G92" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G92" xr:uid="{DC19F6B0-0587-46B4-B294-E8D476710C92}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1EDA15DF-55D2-40A4-885C-A06FCAF5C0D4}" name="Titel" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{380A952E-3AB4-42D5-8EA2-4B2FC5008100}" name="Art" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{572953A2-C6BA-4AE0-9476-B7B82435DA3B}" name="Herausgabejahr" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B73C59EF-361A-4D69-8CE9-3C5AA44ADB07}" name="Trägerorganisation" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{72E1B583-90CA-4179-A194-100B8128864B}" name="Kategorie 1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8F9A1152-5412-4577-AF60-A6385D85CE37}" name="Kategorie 2" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{AA1EFAAE-96EE-442D-9C7D-D692FB740324}" name="Kategorie 3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1EDA15DF-55D2-40A4-885C-A06FCAF5C0D4}" name="Titel" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{380A952E-3AB4-42D5-8EA2-4B2FC5008100}" name="Art" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{572953A2-C6BA-4AE0-9476-B7B82435DA3B}" name="Herausgabejahr" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B73C59EF-361A-4D69-8CE9-3C5AA44ADB07}" name="Trägerorganisation" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{72E1B583-90CA-4179-A194-100B8128864B}" name="Kategorie 1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8F9A1152-5412-4577-AF60-A6385D85CE37}" name="Kategorie 2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AA1EFAAE-96EE-442D-9C7D-D692FB740324}" name="Kategorie 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1815,18 +1812,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C876F68F-E5AF-4D2C-A2F8-1E598695C57F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="6" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08203125" customWidth="1"/>
+    <col min="1" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -1849,7 +1846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75.5" thickBot="1">
+    <row r="2" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75.5" thickBot="1">
+    <row r="3" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1895,7 +1892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75.5" thickBot="1">
+    <row r="4" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75.5" thickBot="1">
+    <row r="5" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1941,7 +1938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" thickBot="1">
+    <row r="6" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1964,9 +1961,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="38" thickBot="1">
+    <row r="7" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>136</v>
@@ -1987,9 +1984,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="38" thickBot="1">
+    <row r="8" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>136</v>
@@ -2010,9 +2007,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40" thickBot="1">
+    <row r="9" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>136</v>
@@ -2033,9 +2030,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="40" thickBot="1">
+    <row r="10" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>136</v>
@@ -2056,9 +2053,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40" thickBot="1">
+    <row r="11" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>136</v>
@@ -2079,9 +2076,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40" thickBot="1">
+    <row r="12" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>136</v>
@@ -2102,9 +2099,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="38" thickBot="1">
+    <row r="13" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>136</v>
@@ -2125,7 +2122,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="50.5" thickBot="1">
+    <row r="14" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="38" thickBot="1">
+    <row r="15" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="50.5" thickBot="1">
+    <row r="16" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -2194,16 +2191,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75">
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>2019</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>91</v>
@@ -2215,7 +2214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="112.5" thickBot="1">
+    <row r="18" spans="1:7" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>135</v>
       </c>
@@ -2238,7 +2237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="63" thickBot="1">
+    <row r="19" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="50.5" thickBot="1">
+    <row r="20" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="63" thickBot="1">
+    <row r="21" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="50.5" thickBot="1">
+    <row r="22" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="63" thickBot="1">
+    <row r="23" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
@@ -2353,15 +2352,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="75.5" thickBot="1">
+    <row r="24" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>146</v>
+      <c r="C24" s="3">
+        <v>2025</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>144</v>
@@ -2376,7 +2375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="50.5" thickBot="1">
+    <row r="25" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="88" thickBot="1">
+    <row r="26" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75.5" thickBot="1">
+    <row r="27" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="50">
+    <row r="28" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.5" thickBot="1">
+    <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>18</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="63" thickBot="1">
+    <row r="30" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28">
+    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>21</v>
       </c>
@@ -2560,15 +2559,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28">
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>146</v>
+      <c r="C33" s="12">
+        <v>2025</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>144</v>
@@ -2583,7 +2582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28">
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>23</v>
       </c>
@@ -2606,15 +2605,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28">
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>146</v>
+      <c r="C35" s="12">
+        <v>2025</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>144</v>
@@ -2629,7 +2628,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="38" thickBot="1">
+    <row r="36" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>25</v>
       </c>
@@ -2650,9 +2649,9 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="40" thickBot="1">
+    <row r="37" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>136</v>
@@ -2661,7 +2660,7 @@
         <v>2021</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>75</v>
@@ -2673,9 +2672,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="40" thickBot="1">
+    <row r="38" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>136</v>
@@ -2684,7 +2683,7 @@
         <v>2021</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>73</v>
@@ -2696,9 +2695,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="27.5" thickBot="1">
+    <row r="39" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>136</v>
@@ -2707,7 +2706,7 @@
         <v>2022</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>74</v>
@@ -2719,7 +2718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="25.5" thickBot="1">
+    <row r="40" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>26</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>2021</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>75</v>
@@ -2742,7 +2741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="38" thickBot="1">
+    <row r="41" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>2021</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>75</v>
@@ -2765,7 +2764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="63" thickBot="1">
+    <row r="42" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>2011</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>73</v>
@@ -2788,9 +2787,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="63" thickBot="1">
+    <row r="43" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>136</v>
@@ -2799,7 +2798,7 @@
         <v>2022</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>75</v>
@@ -2811,9 +2810,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="38" thickBot="1">
+    <row r="44" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>136</v>
@@ -2822,7 +2821,7 @@
         <v>2019</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>75</v>
@@ -2834,7 +2833,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="38" thickBot="1">
+    <row r="45" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>2017</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>75</v>
@@ -2857,7 +2856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75.5" thickBot="1">
+    <row r="46" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>30</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>2019</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>75</v>
@@ -2880,9 +2879,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="52.5" thickBot="1">
+    <row r="47" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>136</v>
@@ -2891,7 +2890,7 @@
         <v>2025</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>75</v>
@@ -2903,9 +2902,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="50.5" thickBot="1">
+    <row r="48" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>136</v>
@@ -2914,7 +2913,7 @@
         <v>2024</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>75</v>
@@ -2926,9 +2925,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="52.5" thickBot="1">
+    <row r="49" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>136</v>
@@ -2937,7 +2936,7 @@
         <v>2024</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>75</v>
@@ -2949,7 +2948,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="38" thickBot="1">
+    <row r="50" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>31</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>2024</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>75</v>
@@ -2972,7 +2971,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="38" thickBot="1">
+    <row r="51" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>2024</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>75</v>
@@ -2995,7 +2994,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="38" thickBot="1">
+    <row r="52" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>2020</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>75</v>
@@ -3018,7 +3017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="50.5" thickBot="1">
+    <row r="53" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>34</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>2023</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>75</v>
@@ -3041,7 +3040,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="63" thickBot="1">
+    <row r="54" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>2022</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>75</v>
@@ -3064,18 +3063,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="88" thickBot="1">
+    <row r="55" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>146</v>
+      <c r="C55" s="4">
+        <v>2025</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>75</v>
@@ -3087,9 +3086,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="92" thickBot="1">
+    <row r="56" spans="1:7" ht="92" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>136</v>
@@ -3098,7 +3097,7 @@
         <v>2017</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>75</v>
@@ -3110,7 +3109,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="75.5" thickBot="1">
+    <row r="57" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>37</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>2017</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>73</v>
@@ -3133,7 +3132,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="75.5" thickBot="1">
+    <row r="58" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>38</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>2017</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>74</v>
@@ -3156,9 +3155,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="52.5" thickBot="1">
+    <row r="59" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>136</v>
@@ -3167,7 +3166,7 @@
         <v>2016</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>91</v>
@@ -3179,7 +3178,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="50.5" thickBot="1">
+    <row r="60" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>39</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>2023</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>91</v>
@@ -3202,9 +3201,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="77.5" thickBot="1">
+    <row r="61" spans="1:7" ht="77.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>136</v>
@@ -3213,7 +3212,7 @@
         <v>2018</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>75</v>
@@ -3225,7 +3224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="38" thickBot="1">
+    <row r="62" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>40</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>2018</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>75</v>
@@ -3248,9 +3247,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="40" thickBot="1">
+    <row r="63" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>136</v>
@@ -3259,7 +3258,7 @@
         <v>2016</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>75</v>
@@ -3271,9 +3270,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="50.5" thickBot="1">
+    <row r="64" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>136</v>
@@ -3282,7 +3281,7 @@
         <v>2022</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>91</v>
@@ -3294,7 +3293,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="50.5" thickBot="1">
+    <row r="65" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>41</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="50.5" thickBot="1">
+    <row r="66" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>42</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="50.5" thickBot="1">
+    <row r="67" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>43</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="63" thickBot="1">
+    <row r="68" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>44</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="50.5" thickBot="1">
+    <row r="69" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>45</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="50.5" thickBot="1">
+    <row r="70" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>46</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="38" thickBot="1">
+    <row r="71" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>47</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="50.5" thickBot="1">
+    <row r="72" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>48</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="50.5" thickBot="1">
+    <row r="73" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>49</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="63" thickBot="1">
+    <row r="74" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>50</v>
       </c>
@@ -3524,15 +3523,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="63" thickBot="1">
+    <row r="75" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>146</v>
+      <c r="C75" s="4">
+        <v>2025</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>145</v>
@@ -3547,7 +3546,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="25.5" thickBot="1">
+    <row r="76" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>2018</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>79</v>
@@ -3570,9 +3569,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="52.5" thickBot="1">
+    <row r="77" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>136</v>
@@ -3581,7 +3580,7 @@
         <v>2021</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>75</v>
@@ -3593,7 +3592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="38" thickBot="1">
+    <row r="78" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>2025</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>75</v>
@@ -3616,7 +3615,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="38" thickBot="1">
+    <row r="79" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>54</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>2018</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>91</v>
@@ -3639,7 +3638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="38" thickBot="1">
+    <row r="80" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
         <v>55</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>2020</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>75</v>
@@ -3662,7 +3661,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="38" thickBot="1">
+    <row r="81" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>56</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>2019</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>75</v>
@@ -3685,7 +3684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="38" thickBot="1">
+    <row r="82" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
         <v>57</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>2019</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>75</v>
@@ -3708,7 +3707,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="50.5" thickBot="1">
+    <row r="83" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>58</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>2024</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>91</v>
@@ -3731,7 +3730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="38" thickBot="1">
+    <row r="84" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>59</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>2016</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>91</v>
@@ -3752,7 +3751,7 @@
       </c>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" ht="25.5" thickBot="1">
+    <row r="85" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
         <v>60</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>2022</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>75</v>
@@ -3775,9 +3774,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="27.5" thickBot="1">
+    <row r="86" spans="1:7" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>136</v>
@@ -3786,7 +3785,7 @@
         <v>2018</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>75</v>
@@ -3798,7 +3797,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="100.5" thickBot="1">
+    <row r="87" spans="1:7" ht="113" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
         <v>61</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>2022</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>75</v>
@@ -3821,7 +3820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="88" thickBot="1">
+    <row r="88" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>62</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>2022</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>73</v>
@@ -3844,7 +3843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="75.5" thickBot="1">
+    <row r="89" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
         <v>63</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>2022</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>75</v>
@@ -3867,7 +3866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="50.5" thickBot="1">
+    <row r="90" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>64</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>2020</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>75</v>
@@ -3890,7 +3889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="50.5" thickBot="1">
+    <row r="91" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
         <v>65</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>2019</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>75</v>
@@ -3913,7 +3912,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="62.5">
+    <row r="92" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>66</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>2024</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>75</v>

--- a/data/Tabellarische_Darstellung.xlsx
+++ b/data/Tabellarische_Darstellung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-makast\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0098112-9FAA-4027-AC85-D5BE71E30778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F9B383-D11A-4FE4-B8CC-9E5C8C7C6C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3BF2A3B6-F95D-44C5-B263-B1FCB04FF02A}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>BS 202002:2023 Applying benefits management on port­folios, programmes and projects. Guide</t>
   </si>
   <si>
-    <t>DIIR Prüfungsstandard Nr. 4 – Standard zur Prü­fung von Projekten, Definitionen und Grundsätze</t>
-  </si>
-  <si>
     <t>DIN 69900:2009-01 Projektmanagement – Netzplan­tech­nik; Beschreibungen und Begriffe</t>
   </si>
   <si>
@@ -1008,6 +1005,9 @@
   </si>
   <si>
     <t xml:space="preserve">DIN/TS 69901-4:2025-02 – Entwurf Projekt­manage­ment – Projekt­managementsysteme – Teil 4: Daten, Datenmodell </t>
+  </si>
+  <si>
+    <t>DIIR Prüfungsstandard Nr. 4 – Standard zur Prüfung von Projekten, Definitionen und Grundsätze</t>
   </si>
 </sst>
 </file>
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C876F68F-E5AF-4D2C-A2F8-1E598695C57F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1825,25 +1825,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1851,22 +1851,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3">
         <v>2024</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1874,22 +1874,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4">
         <v>2017</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1897,22 +1897,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3">
         <v>2021</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1920,22 +1920,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="4">
         <v>2019</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
@@ -1943,183 +1943,183 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3">
         <v>2025</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3">
         <v>2021</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4">
         <v>2022</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4">
         <v>2020</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4">
         <v>2021</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="3">
         <v>2023</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3">
         <v>2018</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4">
         <v>2021</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2127,22 +2127,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4">
         <v>2019</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
@@ -2150,22 +2150,22 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3">
         <v>2020</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
@@ -2173,1766 +2173,1766 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4">
         <v>2023</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="A17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4">
         <v>2019</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="11">
         <v>2014</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4">
         <v>2009</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="4">
         <v>2009</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3">
         <v>2009</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="4">
         <v>2009</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="4">
         <v>2009</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3">
         <v>2025</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4">
         <v>2009</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4">
         <v>2015</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="4">
         <v>2015</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4">
         <v>2020</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="11">
         <v>2020</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4">
         <v>2024</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="3">
         <v>2024</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="12">
         <v>2020</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="12">
         <v>2025</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="11">
         <v>2017</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="12">
         <v>2025</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="11">
         <v>2018</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="3">
         <v>2021</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4">
         <v>2021</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="3">
         <v>2022</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="4">
         <v>2021</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="4">
         <v>2021</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="4">
         <v>2011</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="3">
         <v>2022</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4">
         <v>2019</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3">
         <v>2017</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4">
         <v>2019</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="3">
         <v>2025</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="3">
         <v>2024</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="4">
         <v>2024</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4">
         <v>2024</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="3">
         <v>2024</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="3">
         <v>2020</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="3">
         <v>2023</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="3">
         <v>2022</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4">
         <v>2025</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="92" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="3">
         <v>2017</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="3">
         <v>2017</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="3">
         <v>2017</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="7">
         <v>2016</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="4">
         <v>2023</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="77.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="3">
         <v>2018</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="4">
         <v>2018</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="3">
         <v>2016</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="3">
         <v>2022</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="3">
         <v>2017</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4">
         <v>2021</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4">
         <v>2020</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4">
         <v>2022</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="3">
         <v>2022</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4">
         <v>2017</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4">
         <v>2024</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="4">
         <v>2018</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="4">
         <v>2018</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="3">
         <v>2024</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="4">
         <v>2025</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="4">
         <v>2018</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="3">
         <v>2021</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="4">
         <v>2025</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="3">
         <v>2018</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="4">
         <v>2020</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="3">
         <v>2019</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="4">
         <v>2019</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="3">
         <v>2024</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C84" s="4">
         <v>2016</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="4">
         <v>2022</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="4">
         <v>2018</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="113" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" s="4">
         <v>2022</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="4">
         <v>2022</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="4">
         <v>2022</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" s="4">
         <v>2020</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C91" s="4">
         <v>2019</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="3">
         <v>2024</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
